--- a/biology/Médecine/Carboxythérapie/Carboxythérapie.xlsx
+++ b/biology/Médecine/Carboxythérapie/Carboxythérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carboxyth%C3%A9rapie</t>
+          <t>Carboxythérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La carboxythérapie est l'injection sous-cutanée de dioxyde de carbone pour des raisons esthétiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carboxyth%C3%A9rapie</t>
+          <t>Carboxythérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La carboxythérapie est aussi appelée CDT, Carbon dioxide therapy, Carboxytherapy, Carbotherapy ouCarboxy-mesotherapy.
 Connaissant une recrudescence d'intérêt depuis les années 2000, la technique d’injection de CO2 médical par voie per cutanée ou sous-cutanée a été inventée en France dans les années 1930 aux cures thermales de Royat dans des applications initialement vasculaires. Les bains riches en CO2 thermal avaient en effet pour propriété supposée de soulager les artériopathies des membres inférieurs par effet vasoactif et effet Bohr[réf. nécessaire]. Les médecins thermalistes ont expérimenté des injections sous-cutanées directes du même gaz. On retrouve dans la littérature des applications thérapeutiques dans la prise en charge des cicatrisations des ulcères à composante vasculaire.  Les applications esthétiques des injections de gaz CO2 ont été publiées par les Italiens D’Aniello et Brandi de l'Université de Sienne dans le cadre de recherche de traitement contre l’effet peau d’orange de la cellulite. 
-La technique est actuellement très répandue dans les pays d’Amérique du Sud, notamment au Brésil, avec une gamme d’indications élargie : cellulite, graisses localisées, rides, vergetures, cernes péri-oculaires[1], relâchement cutané. On retrouve d’autres indications comme le traitement de la perte des cheveux, le psoriasis… sans qu’une preuve scientifique étayée ne vienne pour le moment confirmer ces orientations. On retrouve des applications de la CDT liées à la prise en charge des cicatrices chirurgicales et d’acné sans qu’aucune étude clinique ne puisse confirmer. Les injections de CO2 constituent une technique en cours de validation et des études cliniques seraient nécessaires pour pouvoir affirmer certaines allégations thérapeutiques qui restent donc pour le moment expérimentales.
+La technique est actuellement très répandue dans les pays d’Amérique du Sud, notamment au Brésil, avec une gamme d’indications élargie : cellulite, graisses localisées, rides, vergetures, cernes péri-oculaires, relâchement cutané. On retrouve d’autres indications comme le traitement de la perte des cheveux, le psoriasis… sans qu’une preuve scientifique étayée ne vienne pour le moment confirmer ces orientations. On retrouve des applications de la CDT liées à la prise en charge des cicatrices chirurgicales et d’acné sans qu’aucune étude clinique ne puisse confirmer. Les injections de CO2 constituent une technique en cours de validation et des études cliniques seraient nécessaires pour pouvoir affirmer certaines allégations thérapeutiques qui restent donc pour le moment expérimentales.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carboxyth%C3%A9rapie</t>
+          <t>Carboxythérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Indications vasculaires
 Artériopathie oblitérante des membres inférieurs,
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carboxyth%C3%A9rapie</t>
+          <t>Carboxythérapie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On retrouve traditionnellement dans la faible littérature les contre-indications évidentes :
 Défaillance ou insuffisance cardiaque sévère
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carboxyth%C3%A9rapie</t>
+          <t>Carboxythérapie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Effets indésirables immédiats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patientes rapportent le plus souvent des sensations fugaces pendant l’injection. Le passage du gaz est souvent décrit comme une sensation de décollement de la peau, de passage d’eau qui coule sous la peau, de fourmillements se diffusant à distance du point de ponction. Certains effets décrits varient en fonction de la technique d’injection ou du lieu :
 Injections sous cutanées
@@ -656,7 +676,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carboxyth%C3%A9rapie</t>
+          <t>Carboxythérapie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,7 +694,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les complications se superposent pour l’essentiel aux complications de la mésothérapie actuellement bien connues: infections bactériennes (mycobactéries), virales… le plus facilement gérables de façon codifiée en préventif par des règles d’hygiène et de préparation du matériel. Les utilisations incontrolées des volumes massives peuvent entrainer un emphysème sous-cutané douloureux avec paresthésies pendant quelques semaines.
 On retrouve dans les complications habituelles la survenue d’hématomes dans 20 % des cas environ comme dans toute technique de mésothérapie. On peut supposer que l’effet vasodilatateur et d’augmentation du flux sanguin par le CO2 augmente le risque. Il n’y a aucune étude clinique comparative disponible.
